--- a/Code/Results/Cases/Case_5_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.081538533535536</v>
+        <v>0.6537219968967065</v>
       </c>
       <c r="C2">
-        <v>0.09838427071141354</v>
+        <v>0.07532276124410942</v>
       </c>
       <c r="D2">
-        <v>0.08809813047560056</v>
+        <v>0.1200858742501865</v>
       </c>
       <c r="E2">
-        <v>0.05447033931779544</v>
+        <v>0.1232652603590871</v>
       </c>
       <c r="F2">
-        <v>0.8506147502838033</v>
+        <v>1.86117351845887</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.5120610621389616</v>
+        <v>1.203488368999068</v>
       </c>
       <c r="J2">
-        <v>0.0610633207911615</v>
+        <v>0.1600578772566994</v>
       </c>
       <c r="K2">
-        <v>0.9624345342313063</v>
+        <v>0.406884506053018</v>
       </c>
       <c r="L2">
-        <v>0.2129642653020767</v>
+        <v>0.2914885544889216</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.191887968693891</v>
+        <v>4.917389103029791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9414253666324726</v>
+        <v>0.6139160630076219</v>
       </c>
       <c r="C3">
-        <v>0.0920739007389173</v>
+        <v>0.07312015266796124</v>
       </c>
       <c r="D3">
-        <v>0.07899928236540887</v>
+        <v>0.1180219903983684</v>
       </c>
       <c r="E3">
-        <v>0.05242717120134266</v>
+        <v>0.1233192762499531</v>
       </c>
       <c r="F3">
-        <v>0.842888012929663</v>
+        <v>1.870935651370026</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.5218682453277665</v>
+        <v>1.21344278487879</v>
       </c>
       <c r="J3">
-        <v>0.06194612671840716</v>
+        <v>0.1610591200374323</v>
       </c>
       <c r="K3">
-        <v>0.8372541508989002</v>
+        <v>0.3695605442179613</v>
       </c>
       <c r="L3">
-        <v>0.19206833582097</v>
+        <v>0.287081584641804</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.20101937130498</v>
+        <v>4.951555263342343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8555830325094576</v>
+        <v>0.5896291302994427</v>
       </c>
       <c r="C4">
-        <v>0.08819228514119715</v>
+        <v>0.07175443171390583</v>
       </c>
       <c r="D4">
-        <v>0.07345728248228056</v>
+        <v>0.1167940951046162</v>
       </c>
       <c r="E4">
-        <v>0.05122596904421606</v>
+        <v>0.1233928815279572</v>
       </c>
       <c r="F4">
-        <v>0.8395239792397362</v>
+        <v>1.877749120894769</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.5287594975756598</v>
+        <v>1.220060256618247</v>
       </c>
       <c r="J4">
-        <v>0.06255855230984686</v>
+        <v>0.1617227044184215</v>
       </c>
       <c r="K4">
-        <v>0.7604576275001307</v>
+        <v>0.3466825284027664</v>
       </c>
       <c r="L4">
-        <v>0.1793866438824594</v>
+        <v>0.2844843249492754</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.21048076793052</v>
+        <v>4.974739993357673</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8206379634347343</v>
+        <v>0.5797715301364974</v>
       </c>
       <c r="C5">
-        <v>0.08660825231350344</v>
+        <v>0.07119456716172579</v>
       </c>
       <c r="D5">
-        <v>0.07120935537867012</v>
+        <v>0.1163036776228878</v>
       </c>
       <c r="E5">
-        <v>0.05074946118174495</v>
+        <v>0.1234330743918814</v>
       </c>
       <c r="F5">
-        <v>0.8384883260800748</v>
+        <v>1.880731935628361</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.5317800904311163</v>
+        <v>1.222884101321675</v>
       </c>
       <c r="J5">
-        <v>0.06282547026059504</v>
+        <v>0.162005414992338</v>
       </c>
       <c r="K5">
-        <v>0.7291692722037624</v>
+        <v>0.3373700044117243</v>
       </c>
       <c r="L5">
-        <v>0.1742536261479373</v>
+        <v>0.2834533730326783</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.215273244875718</v>
+        <v>4.984743170800826</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8148372539495767</v>
+        <v>0.5781370931603078</v>
       </c>
       <c r="C6">
-        <v>0.08634507605444952</v>
+        <v>0.07110140216217076</v>
       </c>
       <c r="D6">
-        <v>0.07083670033475897</v>
+        <v>0.1162228477250196</v>
       </c>
       <c r="E6">
-        <v>0.05067111034316873</v>
+        <v>0.1234403651897704</v>
       </c>
       <c r="F6">
-        <v>0.8383362665956824</v>
+        <v>1.881239694021872</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.5322943036469177</v>
+        <v>1.223360681745163</v>
       </c>
       <c r="J6">
-        <v>0.06287082976553826</v>
+        <v>0.1620531019893807</v>
       </c>
       <c r="K6">
-        <v>0.7239740133526595</v>
+        <v>0.3358243169546711</v>
       </c>
       <c r="L6">
-        <v>0.1734033290999974</v>
+        <v>0.2832838462805469</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.216124697416575</v>
+        <v>4.986437734572917</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8551116176513176</v>
+        <v>0.589496026196997</v>
       </c>
       <c r="C7">
-        <v>0.08817093201004411</v>
+        <v>0.07174689460251926</v>
       </c>
       <c r="D7">
-        <v>0.0734269246884125</v>
+        <v>0.1167874407455969</v>
       </c>
       <c r="E7">
-        <v>0.05121949062239395</v>
+        <v>0.1233933822521305</v>
       </c>
       <c r="F7">
-        <v>0.8395086700423846</v>
+        <v>1.877788512723427</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.5287993826851078</v>
+        <v>1.220097824959225</v>
       </c>
       <c r="J7">
-        <v>0.06256208225943283</v>
+        <v>0.1617264673464103</v>
       </c>
       <c r="K7">
-        <v>0.7600356461240381</v>
+        <v>0.3465568932801091</v>
       </c>
       <c r="L7">
-        <v>0.1793172801721354</v>
+        <v>0.2844703098378432</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.210541649305043</v>
+        <v>4.974872651211399</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.033181806612049</v>
+        <v>0.6399653872213094</v>
       </c>
       <c r="C8">
-        <v>0.09620961415662777</v>
+        <v>0.07456607862538789</v>
       </c>
       <c r="D8">
-        <v>0.08495108871905188</v>
+        <v>0.1193661224794695</v>
       </c>
       <c r="E8">
-        <v>0.05375453459174651</v>
+        <v>0.1232755092398623</v>
       </c>
       <c r="F8">
-        <v>0.847656806410491</v>
+        <v>1.864369540681054</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.5152582049034322</v>
+        <v>1.206815799451483</v>
       </c>
       <c r="J8">
-        <v>0.06135289106030939</v>
+        <v>0.1603929851967898</v>
       </c>
       <c r="K8">
-        <v>0.9192530220715014</v>
+        <v>0.3940074679549355</v>
       </c>
       <c r="L8">
-        <v>0.2057270006773138</v>
+        <v>0.2899465623739985</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.194216468932538</v>
+        <v>4.92871183132111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.384402058487296</v>
+        <v>0.7401291332955964</v>
       </c>
       <c r="C9">
-        <v>0.1119415601533191</v>
+        <v>0.07998802989306597</v>
       </c>
       <c r="D9">
-        <v>0.1079424363647661</v>
+        <v>0.1247323883475957</v>
       </c>
       <c r="E9">
-        <v>0.05916864997676896</v>
+        <v>0.123364025940127</v>
       </c>
       <c r="F9">
-        <v>0.8751497846034653</v>
+        <v>1.844548893484308</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.4959025216854833</v>
+        <v>1.184776582286911</v>
       </c>
       <c r="J9">
-        <v>0.05955653375901093</v>
+        <v>0.1581645298034076</v>
       </c>
       <c r="K9">
-        <v>1.232458816134823</v>
+        <v>0.4873445318900451</v>
       </c>
       <c r="L9">
-        <v>0.2588145573119505</v>
+        <v>0.3015423353772917</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.194325879389936</v>
+        <v>4.855684377287929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.644494236896008</v>
+        <v>0.8144157488218582</v>
       </c>
       <c r="C10">
-        <v>0.1235170723407606</v>
+        <v>0.08390585438475284</v>
       </c>
       <c r="D10">
-        <v>0.1251303205747121</v>
+        <v>0.1288605913721739</v>
       </c>
       <c r="E10">
-        <v>0.0634459386053976</v>
+        <v>0.1236224458271664</v>
       </c>
       <c r="F10">
-        <v>0.9031959628789465</v>
+        <v>1.833935473120334</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.4865069820847339</v>
+        <v>1.171022323251794</v>
       </c>
       <c r="J10">
-        <v>0.05861121331852814</v>
+        <v>0.15676175870394</v>
       </c>
       <c r="K10">
-        <v>1.463882204003454</v>
+        <v>0.556069723317222</v>
       </c>
       <c r="L10">
-        <v>0.2987893884638311</v>
+        <v>0.3105783719935431</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.21624652590549</v>
+        <v>4.812678099512084</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.763457709744301</v>
+        <v>0.8483557150263152</v>
       </c>
       <c r="C11">
-        <v>0.1287957378622053</v>
+        <v>0.08567376906771074</v>
       </c>
       <c r="D11">
-        <v>0.1330273508402939</v>
+        <v>0.1307783039195982</v>
       </c>
       <c r="E11">
-        <v>0.06546379091956211</v>
+        <v>0.1237816927377686</v>
       </c>
       <c r="F11">
-        <v>0.9178541709932944</v>
+        <v>1.829962555899698</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.4833834193313109</v>
+        <v>1.165293556979378</v>
       </c>
       <c r="J11">
-        <v>0.05826812446613516</v>
+        <v>0.1561742746760935</v>
       </c>
       <c r="K11">
-        <v>1.569618517418348</v>
+        <v>0.5873625494515977</v>
       </c>
       <c r="L11">
-        <v>0.3172286713270438</v>
+        <v>0.3148001339624074</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.231494686207043</v>
+        <v>4.795421749046625</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.808615979737766</v>
+        <v>0.861228296281098</v>
       </c>
       <c r="C12">
-        <v>0.1307972725267206</v>
+        <v>0.08634115256619168</v>
       </c>
       <c r="D12">
-        <v>0.1360301575187179</v>
+        <v>0.1315101488163748</v>
       </c>
       <c r="E12">
-        <v>0.0662388738033215</v>
+        <v>0.1238479627023423</v>
       </c>
       <c r="F12">
-        <v>0.9236954160602977</v>
+        <v>1.828580907772974</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.4823752588596548</v>
+        <v>1.163200093235808</v>
       </c>
       <c r="J12">
-        <v>0.05815121184788197</v>
+        <v>0.1559590734986571</v>
       </c>
       <c r="K12">
-        <v>1.609739218853548</v>
+        <v>0.5992160067431485</v>
       </c>
       <c r="L12">
-        <v>0.3242514802149543</v>
+        <v>0.316414678852567</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.238075121790018</v>
+        <v>4.789218726655605</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.798885198678704</v>
+        <v>0.8584550680374718</v>
       </c>
       <c r="C13">
-        <v>0.1303660769491586</v>
+        <v>0.08619751286798305</v>
       </c>
       <c r="D13">
-        <v>0.1353828802778025</v>
+        <v>0.131352282812216</v>
       </c>
       <c r="E13">
-        <v>0.06607144817553845</v>
+        <v>0.1238334253649462</v>
       </c>
       <c r="F13">
-        <v>0.9224241916903111</v>
+        <v>1.828873011059784</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.4825844626812881</v>
+        <v>1.163647583367634</v>
       </c>
       <c r="J13">
-        <v>0.05817580415991941</v>
+        <v>0.1560050980109224</v>
       </c>
       <c r="K13">
-        <v>1.601094680041797</v>
+        <v>0.596663005905981</v>
       </c>
       <c r="L13">
-        <v>0.3227371416264333</v>
+        <v>0.3160662547606705</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.236621256169968</v>
+        <v>4.790539914794579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.767170617086748</v>
+        <v>0.8494143488860288</v>
       </c>
       <c r="C14">
-        <v>0.1289603482525337</v>
+        <v>0.08572871710336472</v>
       </c>
       <c r="D14">
-        <v>0.133274138838857</v>
+        <v>0.1308384004331629</v>
       </c>
       <c r="E14">
-        <v>0.06552733411339062</v>
+        <v>0.1237870253902358</v>
       </c>
       <c r="F14">
-        <v>0.9183288085397123</v>
+        <v>1.829846426536875</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.483296921845259</v>
+        <v>1.165119805660375</v>
       </c>
       <c r="J14">
-        <v>0.05825824229180299</v>
+        <v>0.1561564244113534</v>
       </c>
       <c r="K14">
-        <v>1.572917568931928</v>
+        <v>0.5883376734134629</v>
       </c>
       <c r="L14">
-        <v>0.3178056135216423</v>
+        <v>0.3149326465726148</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.232019619699656</v>
+        <v>4.794904778511494</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.747759273780957</v>
+        <v>0.8438792602580634</v>
       </c>
       <c r="C15">
-        <v>0.1280996635501737</v>
+        <v>0.08544129349607488</v>
       </c>
       <c r="D15">
-        <v>0.131984119959867</v>
+        <v>0.1305243661863216</v>
       </c>
       <c r="E15">
-        <v>0.06519549506181477</v>
+        <v>0.1237593802529773</v>
       </c>
       <c r="F15">
-        <v>0.9158586325999423</v>
+        <v>1.830458660144735</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.4837563541547283</v>
+        <v>1.166031466806828</v>
       </c>
       <c r="J15">
-        <v>0.05831044755978709</v>
+        <v>0.1562500620048652</v>
       </c>
       <c r="K15">
-        <v>1.555669224030026</v>
+        <v>0.5832386080513459</v>
       </c>
       <c r="L15">
-        <v>0.3147902648242109</v>
+        <v>0.314240339537136</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.229307452368204</v>
+        <v>4.797621558899181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.636734078275794</v>
+        <v>0.8122005714182592</v>
       </c>
       <c r="C16">
-        <v>0.123172422641403</v>
+        <v>0.08379002640539568</v>
       </c>
       <c r="D16">
-        <v>0.12461589917217</v>
+        <v>0.1287360586441366</v>
       </c>
       <c r="E16">
-        <v>0.06331556827018758</v>
+        <v>0.1236128751546772</v>
       </c>
       <c r="F16">
-        <v>0.9022776981296801</v>
+        <v>1.834212306966919</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.4867350404034063</v>
+        <v>1.171407334639039</v>
       </c>
       <c r="J16">
-        <v>0.05863542697532154</v>
+        <v>0.1568011698577365</v>
       </c>
       <c r="K16">
-        <v>1.456982565175281</v>
+        <v>0.5540251965164771</v>
       </c>
       <c r="L16">
-        <v>0.2975897663580156</v>
+        <v>0.3103046961762459</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.21536019056029</v>
+        <v>4.813852254889156</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.568800577414379</v>
+        <v>0.7928036814872428</v>
       </c>
       <c r="C17">
-        <v>0.1201535490570933</v>
+        <v>0.08277333919741636</v>
       </c>
       <c r="D17">
-        <v>0.1201165386232788</v>
+        <v>0.1276491263740951</v>
       </c>
       <c r="E17">
-        <v>0.06218117338050178</v>
+        <v>0.123533656703934</v>
       </c>
       <c r="F17">
-        <v>0.8944447958989983</v>
+        <v>1.836733963027633</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.4888634189447458</v>
+        <v>1.174840485164538</v>
       </c>
       <c r="J17">
-        <v>0.05885740912320969</v>
+        <v>0.1571522161507275</v>
       </c>
       <c r="K17">
-        <v>1.396569410730649</v>
+        <v>0.5361107558922242</v>
       </c>
       <c r="L17">
-        <v>0.2871055309637427</v>
+        <v>0.3079186948495476</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.208188258668116</v>
+        <v>4.824400089573203</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529786797969081</v>
+        <v>0.7816609527293394</v>
       </c>
       <c r="C18">
-        <v>0.1184183384455082</v>
+        <v>0.08218722107601195</v>
       </c>
       <c r="D18">
-        <v>0.1175359116417809</v>
+        <v>0.1270276994398927</v>
       </c>
       <c r="E18">
-        <v>0.06153544708159586</v>
+        <v>0.1234920181412669</v>
       </c>
       <c r="F18">
-        <v>0.890117241246152</v>
+        <v>1.838264856423415</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.4901953116265823</v>
+        <v>1.176864854010539</v>
       </c>
       <c r="J18">
-        <v>0.05899323870944784</v>
+        <v>0.1573588964713011</v>
       </c>
       <c r="K18">
-        <v>1.361863797564979</v>
+        <v>0.5258096506863978</v>
       </c>
       <c r="L18">
-        <v>0.2810990010159884</v>
+        <v>0.3065568071609022</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.204556761092704</v>
+        <v>4.83068412370514</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.51658718624725</v>
+        <v>0.7778906201896234</v>
       </c>
       <c r="C19">
-        <v>0.1178310039071988</v>
+        <v>0.08198854112980314</v>
       </c>
       <c r="D19">
-        <v>0.1166633738357206</v>
+        <v>0.1268179407863386</v>
       </c>
       <c r="E19">
-        <v>0.06131795650827243</v>
+        <v>0.1234785951646984</v>
       </c>
       <c r="F19">
-        <v>0.8886820207063835</v>
+        <v>1.838797022194584</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.4906644947548244</v>
+        <v>1.177558809935867</v>
       </c>
       <c r="J19">
-        <v>0.05904061337872335</v>
+        <v>0.1574296942421647</v>
       </c>
       <c r="K19">
-        <v>1.350119939280802</v>
+        <v>0.5223223764583906</v>
       </c>
       <c r="L19">
-        <v>0.2790692606661338</v>
+        <v>0.3060974990770404</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.203410577543252</v>
+        <v>4.832849100508355</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.576025912729961</v>
+        <v>0.7948670862027711</v>
       </c>
       <c r="C20">
-        <v>0.1204747873374288</v>
+        <v>0.08288170684960505</v>
       </c>
       <c r="D20">
-        <v>0.1205947411824724</v>
+        <v>0.1277644448017838</v>
       </c>
       <c r="E20">
-        <v>0.06230122907573232</v>
+        <v>0.1235416835443601</v>
       </c>
       <c r="F20">
-        <v>0.8952601062336072</v>
+        <v>1.836457197813019</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.4886256373780071</v>
+        <v>1.174469875817252</v>
       </c>
       <c r="J20">
-        <v>0.05883293155193314</v>
+        <v>0.1571143533441379</v>
       </c>
       <c r="K20">
-        <v>1.402996001152474</v>
+        <v>0.5380174930982093</v>
       </c>
       <c r="L20">
-        <v>0.2882191146045017</v>
+        <v>0.3081716054210517</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.208900301969692</v>
+        <v>4.823254776923307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.776482852774478</v>
+        <v>0.8520692842037363</v>
       </c>
       <c r="C21">
-        <v>0.1293731673899998</v>
+        <v>0.08586647065638431</v>
       </c>
       <c r="D21">
-        <v>0.1338931821364042</v>
+        <v>0.1309891873989812</v>
       </c>
       <c r="E21">
-        <v>0.06568685102622496</v>
+        <v>0.1238004924816529</v>
       </c>
       <c r="F21">
-        <v>0.9195236942308611</v>
+        <v>1.829557179116065</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.4830828384711978</v>
+        <v>1.164685318868294</v>
       </c>
       <c r="J21">
-        <v>0.05823367100176569</v>
+        <v>0.1561117791033944</v>
       </c>
       <c r="K21">
-        <v>1.581191560456404</v>
+        <v>0.5907829346507469</v>
       </c>
       <c r="L21">
-        <v>0.3192530000935392</v>
+        <v>0.3152651855732529</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.233348954705235</v>
+        <v>4.793613714927716</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.908139128873898</v>
+        <v>0.889571891705458</v>
       </c>
       <c r="C22">
-        <v>0.1352044359648232</v>
+        <v>0.08780500647947065</v>
       </c>
       <c r="D22">
-        <v>0.1426571793334688</v>
+        <v>0.1331296358850693</v>
       </c>
       <c r="E22">
-        <v>0.06796377452514335</v>
+        <v>0.1240044039315933</v>
       </c>
       <c r="F22">
-        <v>0.9370834680869109</v>
+        <v>1.825763368683042</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.4804831012558921</v>
+        <v>1.158732902096993</v>
       </c>
       <c r="J22">
-        <v>0.05791809632836831</v>
+        <v>0.1554988848211778</v>
       </c>
       <c r="K22">
-        <v>1.698130231885756</v>
+        <v>0.6252885375755</v>
       </c>
       <c r="L22">
-        <v>0.3397719368417285</v>
+        <v>0.319993602625118</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.254051618696479</v>
+        <v>4.77617418431015</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.837806830724816</v>
+        <v>0.8695455516369748</v>
       </c>
       <c r="C23">
-        <v>0.1320904765363053</v>
+        <v>0.08677149701620124</v>
       </c>
       <c r="D23">
-        <v>0.137972623727606</v>
+        <v>0.1319842517916072</v>
       </c>
       <c r="E23">
-        <v>0.06674245318814087</v>
+        <v>0.123892400943646</v>
       </c>
       <c r="F23">
-        <v>0.927549725200052</v>
+        <v>1.827722759906351</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.481773836871092</v>
+        <v>1.161869358618382</v>
       </c>
       <c r="J23">
-        <v>0.05807938796107948</v>
+        <v>0.1558221287132646</v>
       </c>
       <c r="K23">
-        <v>1.6356691241146</v>
+        <v>0.6068706123789127</v>
       </c>
       <c r="L23">
-        <v>0.3287976826847228</v>
+        <v>0.3174615529571128</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.24255341428659</v>
+        <v>4.785305228566642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.572759208746845</v>
+        <v>0.7939341934524293</v>
       </c>
       <c r="C24">
-        <v>0.1203295543840568</v>
+        <v>0.0828327188496587</v>
       </c>
       <c r="D24">
-        <v>0.1203785268423161</v>
+        <v>0.1277122985435284</v>
       </c>
       <c r="E24">
-        <v>0.06224693184292462</v>
+        <v>0.123538042443684</v>
       </c>
       <c r="F24">
-        <v>0.8948909585063305</v>
+        <v>1.836582070546918</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.4887328019105226</v>
+        <v>1.174637270668065</v>
       </c>
       <c r="J24">
-        <v>0.05884397233026206</v>
+        <v>0.1571314559820642</v>
       </c>
       <c r="K24">
-        <v>1.400090457491359</v>
+        <v>0.5371554629335549</v>
       </c>
       <c r="L24">
-        <v>0.2877155983137527</v>
+        <v>0.3080572338406995</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.208576859086833</v>
+        <v>4.823771887642977</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.289089847505181</v>
+        <v>0.7129076574818214</v>
       </c>
       <c r="C25">
-        <v>0.1076854442896931</v>
+        <v>0.07853272712524273</v>
       </c>
       <c r="D25">
-        <v>0.1016749839524067</v>
+        <v>0.1232478561650936</v>
       </c>
       <c r="E25">
-        <v>0.05765362441348287</v>
+        <v>0.1233060116639706</v>
       </c>
       <c r="F25">
-        <v>0.8663970148880153</v>
+        <v>1.849216724904593</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.5003245740923177</v>
+        <v>1.190310306174045</v>
       </c>
       <c r="J25">
-        <v>0.05997855758852566</v>
+        <v>0.1587261273451261</v>
       </c>
       <c r="K25">
-        <v>1.147552581781497</v>
+        <v>0.4620662161180462</v>
       </c>
       <c r="L25">
-        <v>0.2442960678168902</v>
+        <v>0.2983142331406867</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.190632454778608</v>
+        <v>4.873569239585265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6537219968967065</v>
+        <v>1.081538533535536</v>
       </c>
       <c r="C2">
-        <v>0.07532276124410942</v>
+        <v>0.09838427071132827</v>
       </c>
       <c r="D2">
-        <v>0.1200858742501865</v>
+        <v>0.08809813047553661</v>
       </c>
       <c r="E2">
-        <v>0.1232652603590871</v>
+        <v>0.05447033931779544</v>
       </c>
       <c r="F2">
-        <v>1.86117351845887</v>
+        <v>0.8506147502837962</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.203488368999068</v>
+        <v>0.5120610621389758</v>
       </c>
       <c r="J2">
-        <v>0.1600578772566994</v>
+        <v>0.06106332079118104</v>
       </c>
       <c r="K2">
-        <v>0.406884506053018</v>
+        <v>0.9624345342312779</v>
       </c>
       <c r="L2">
-        <v>0.2914885544889216</v>
+        <v>0.2129642653020909</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.917389103029791</v>
+        <v>2.191887968693862</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6139160630076219</v>
+        <v>0.9414253666325578</v>
       </c>
       <c r="C3">
-        <v>0.07312015266796124</v>
+        <v>0.09207390073939337</v>
       </c>
       <c r="D3">
-        <v>0.1180219903983684</v>
+        <v>0.07899928236555809</v>
       </c>
       <c r="E3">
-        <v>0.1233192762499531</v>
+        <v>0.05242717120133378</v>
       </c>
       <c r="F3">
-        <v>1.870935651370026</v>
+        <v>0.8428880129296772</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.21344278487879</v>
+        <v>0.5218682453277736</v>
       </c>
       <c r="J3">
-        <v>0.1610591200374323</v>
+        <v>0.06194612671832722</v>
       </c>
       <c r="K3">
-        <v>0.3695605442179613</v>
+        <v>0.8372541508988434</v>
       </c>
       <c r="L3">
-        <v>0.287081584641804</v>
+        <v>0.1920683358210766</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.951555263342343</v>
+        <v>2.201019371304952</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5896291302994427</v>
+        <v>0.855583032509486</v>
       </c>
       <c r="C4">
-        <v>0.07175443171390583</v>
+        <v>0.0881922851408774</v>
       </c>
       <c r="D4">
-        <v>0.1167940951046162</v>
+        <v>0.07345728248231609</v>
       </c>
       <c r="E4">
-        <v>0.1233928815279572</v>
+        <v>0.05122596904418941</v>
       </c>
       <c r="F4">
-        <v>1.877749120894769</v>
+        <v>0.8395239792397433</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.220060256618247</v>
+        <v>0.5287594975756456</v>
       </c>
       <c r="J4">
-        <v>0.1617227044184215</v>
+        <v>0.06255855230986285</v>
       </c>
       <c r="K4">
-        <v>0.3466825284027664</v>
+        <v>0.7604576275001591</v>
       </c>
       <c r="L4">
-        <v>0.2844843249492754</v>
+        <v>0.1793866438824452</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.974739993357673</v>
+        <v>2.210480767930505</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5797715301364974</v>
+        <v>0.8206379634348764</v>
       </c>
       <c r="C5">
-        <v>0.07119456716172579</v>
+        <v>0.08660825231313396</v>
       </c>
       <c r="D5">
-        <v>0.1163036776228878</v>
+        <v>0.07120935537879092</v>
       </c>
       <c r="E5">
-        <v>0.1234330743918814</v>
+        <v>0.05074946118180534</v>
       </c>
       <c r="F5">
-        <v>1.880731935628361</v>
+        <v>0.8384883260800819</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.222884101321675</v>
+        <v>0.5317800904311234</v>
       </c>
       <c r="J5">
-        <v>0.162005414992338</v>
+        <v>0.06282547026054175</v>
       </c>
       <c r="K5">
-        <v>0.3373700044117243</v>
+        <v>0.7291692722038192</v>
       </c>
       <c r="L5">
-        <v>0.2834533730326783</v>
+        <v>0.1742536261478804</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.984743170800826</v>
+        <v>2.215273244875746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5781370931603078</v>
+        <v>0.8148372539494346</v>
       </c>
       <c r="C6">
-        <v>0.07110140216217076</v>
+        <v>0.08634507605451347</v>
       </c>
       <c r="D6">
-        <v>0.1162228477250196</v>
+        <v>0.07083670033484424</v>
       </c>
       <c r="E6">
-        <v>0.1234403651897704</v>
+        <v>0.05067111034313854</v>
       </c>
       <c r="F6">
-        <v>1.881239694021872</v>
+        <v>0.8383362665956753</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.223360681745163</v>
+        <v>0.5322943036468963</v>
       </c>
       <c r="J6">
-        <v>0.1620531019893807</v>
+        <v>0.06287082976550806</v>
       </c>
       <c r="K6">
-        <v>0.3358243169546711</v>
+        <v>0.7239740133524606</v>
       </c>
       <c r="L6">
-        <v>0.2832838462805469</v>
+        <v>0.1734033290999548</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.986437734572917</v>
+        <v>2.21612469741649</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.589496026196997</v>
+        <v>0.8551116176511755</v>
       </c>
       <c r="C7">
-        <v>0.07174689460251926</v>
+        <v>0.08817093201003701</v>
       </c>
       <c r="D7">
-        <v>0.1167874407455969</v>
+        <v>0.07342692468853329</v>
       </c>
       <c r="E7">
-        <v>0.1233933822521305</v>
+        <v>0.05121949062239572</v>
       </c>
       <c r="F7">
-        <v>1.877788512723427</v>
+        <v>0.8395086700423846</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.220097824959225</v>
+        <v>0.5287993826850936</v>
       </c>
       <c r="J7">
-        <v>0.1617264673464103</v>
+        <v>0.06256208225937954</v>
       </c>
       <c r="K7">
-        <v>0.3465568932801091</v>
+        <v>0.7600356461240096</v>
       </c>
       <c r="L7">
-        <v>0.2844703098378432</v>
+        <v>0.1793172801720786</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.974872651211399</v>
+        <v>2.210541649304986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6399653872213094</v>
+        <v>1.033181806611935</v>
       </c>
       <c r="C8">
-        <v>0.07456607862538789</v>
+        <v>0.09620961415669882</v>
       </c>
       <c r="D8">
-        <v>0.1193661224794695</v>
+        <v>0.08495108871900214</v>
       </c>
       <c r="E8">
-        <v>0.1232755092398623</v>
+        <v>0.05375453459172874</v>
       </c>
       <c r="F8">
-        <v>1.864369540681054</v>
+        <v>0.847656806410491</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.206815799451483</v>
+        <v>0.5152582049034145</v>
       </c>
       <c r="J8">
-        <v>0.1603929851967898</v>
+        <v>0.06135289106029518</v>
       </c>
       <c r="K8">
-        <v>0.3940074679549355</v>
+        <v>0.9192530220714161</v>
       </c>
       <c r="L8">
-        <v>0.2899465623739985</v>
+        <v>0.2057270006773848</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.92871183132111</v>
+        <v>2.194216468932424</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7401291332955964</v>
+        <v>1.384402058487268</v>
       </c>
       <c r="C9">
-        <v>0.07998802989306597</v>
+        <v>0.1119415601533902</v>
       </c>
       <c r="D9">
-        <v>0.1247323883475957</v>
+        <v>0.1079424363648798</v>
       </c>
       <c r="E9">
-        <v>0.123364025940127</v>
+        <v>0.05916864997677962</v>
       </c>
       <c r="F9">
-        <v>1.844548893484308</v>
+        <v>0.8751497846034582</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.184776582286911</v>
+        <v>0.495902521685494</v>
       </c>
       <c r="J9">
-        <v>0.1581645298034076</v>
+        <v>0.05955653375904291</v>
       </c>
       <c r="K9">
-        <v>0.4873445318900451</v>
+        <v>1.232458816134738</v>
       </c>
       <c r="L9">
-        <v>0.3015423353772917</v>
+        <v>0.2588145573119647</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.855684377287929</v>
+        <v>2.194325879389993</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8144157488218582</v>
+        <v>1.644494236896151</v>
       </c>
       <c r="C10">
-        <v>0.08390585438475284</v>
+        <v>0.123517072340988</v>
       </c>
       <c r="D10">
-        <v>0.1288605913721739</v>
+        <v>0.1251303205748258</v>
       </c>
       <c r="E10">
-        <v>0.1236224458271664</v>
+        <v>0.06344593860540826</v>
       </c>
       <c r="F10">
-        <v>1.833935473120334</v>
+        <v>0.9031959628789537</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.171022323251794</v>
+        <v>0.4865069820847268</v>
       </c>
       <c r="J10">
-        <v>0.15676175870394</v>
+        <v>0.05861121331856012</v>
       </c>
       <c r="K10">
-        <v>0.556069723317222</v>
+        <v>1.463882204003454</v>
       </c>
       <c r="L10">
-        <v>0.3105783719935431</v>
+        <v>0.2987893884638453</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.812678099512084</v>
+        <v>2.216246525905518</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8483557150263152</v>
+        <v>1.763457709744415</v>
       </c>
       <c r="C11">
-        <v>0.08567376906771074</v>
+        <v>0.1287957378622195</v>
       </c>
       <c r="D11">
-        <v>0.1307783039195982</v>
+        <v>0.1330273508404076</v>
       </c>
       <c r="E11">
-        <v>0.1237816927377686</v>
+        <v>0.06546379091955856</v>
       </c>
       <c r="F11">
-        <v>1.829962555899698</v>
+        <v>0.9178541709932801</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.165293556979378</v>
+        <v>0.4833834193313251</v>
       </c>
       <c r="J11">
-        <v>0.1561742746760935</v>
+        <v>0.05826812446611385</v>
       </c>
       <c r="K11">
-        <v>0.5873625494515977</v>
+        <v>1.569618517418348</v>
       </c>
       <c r="L11">
-        <v>0.3148001339624074</v>
+        <v>0.3172286713271859</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.795421749046625</v>
+        <v>2.231494686207014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.861228296281098</v>
+        <v>1.808615979737738</v>
       </c>
       <c r="C12">
-        <v>0.08634115256619168</v>
+        <v>0.1307972725269622</v>
       </c>
       <c r="D12">
-        <v>0.1315101488163748</v>
+        <v>0.1360301575187179</v>
       </c>
       <c r="E12">
-        <v>0.1238479627023423</v>
+        <v>0.0662388738033215</v>
       </c>
       <c r="F12">
-        <v>1.828580907772974</v>
+        <v>0.9236954160602835</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.163200093235808</v>
+        <v>0.4823752588596406</v>
       </c>
       <c r="J12">
-        <v>0.1559590734986571</v>
+        <v>0.05815121184795302</v>
       </c>
       <c r="K12">
-        <v>0.5992160067431485</v>
+        <v>1.609739218853548</v>
       </c>
       <c r="L12">
-        <v>0.316414678852567</v>
+        <v>0.3242514802149259</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.789218726655605</v>
+        <v>2.238075121789961</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8584550680374718</v>
+        <v>1.798885198678789</v>
       </c>
       <c r="C13">
-        <v>0.08619751286798305</v>
+        <v>0.130366076949386</v>
       </c>
       <c r="D13">
-        <v>0.131352282812216</v>
+        <v>0.135382880277831</v>
       </c>
       <c r="E13">
-        <v>0.1238334253649462</v>
+        <v>0.0660714481755349</v>
       </c>
       <c r="F13">
-        <v>1.828873011059784</v>
+        <v>0.9224241916903111</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.163647583367634</v>
+        <v>0.4825844626812952</v>
       </c>
       <c r="J13">
-        <v>0.1560050980109224</v>
+        <v>0.05817580415996559</v>
       </c>
       <c r="K13">
-        <v>0.596663005905981</v>
+        <v>1.60109468004174</v>
       </c>
       <c r="L13">
-        <v>0.3160662547606705</v>
+        <v>0.3227371416265328</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.790539914794579</v>
+        <v>2.236621256169911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8494143488860288</v>
+        <v>1.76717061708672</v>
       </c>
       <c r="C14">
-        <v>0.08572871710336472</v>
+        <v>0.1289603482525337</v>
       </c>
       <c r="D14">
-        <v>0.1308384004331629</v>
+        <v>0.1332741388387149</v>
       </c>
       <c r="E14">
-        <v>0.1237870253902358</v>
+        <v>0.06552733411339418</v>
       </c>
       <c r="F14">
-        <v>1.829846426536875</v>
+        <v>0.9183288085397123</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.165119805660375</v>
+        <v>0.4832969218452661</v>
       </c>
       <c r="J14">
-        <v>0.1561564244113534</v>
+        <v>0.0582582422917568</v>
       </c>
       <c r="K14">
-        <v>0.5883376734134629</v>
+        <v>1.572917568931928</v>
       </c>
       <c r="L14">
-        <v>0.3149326465726148</v>
+        <v>0.3178056135216423</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.794904778511494</v>
+        <v>2.232019619699599</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8438792602580634</v>
+        <v>1.747759273780872</v>
       </c>
       <c r="C15">
-        <v>0.08544129349607488</v>
+        <v>0.1280996635501737</v>
       </c>
       <c r="D15">
-        <v>0.1305243661863216</v>
+        <v>0.1319841199598812</v>
       </c>
       <c r="E15">
-        <v>0.1237593802529773</v>
+        <v>0.06519549506181832</v>
       </c>
       <c r="F15">
-        <v>1.830458660144735</v>
+        <v>0.9158586325999494</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.166031466806828</v>
+        <v>0.4837563541547283</v>
       </c>
       <c r="J15">
-        <v>0.1562500620048652</v>
+        <v>0.0583104475598617</v>
       </c>
       <c r="K15">
-        <v>0.5832386080513459</v>
+        <v>1.555669224030026</v>
       </c>
       <c r="L15">
-        <v>0.314240339537136</v>
+        <v>0.3147902648241541</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.797621558899181</v>
+        <v>2.229307452368204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8122005714182592</v>
+        <v>1.636734078275822</v>
       </c>
       <c r="C16">
-        <v>0.08379002640539568</v>
+        <v>0.1231724226411615</v>
       </c>
       <c r="D16">
-        <v>0.1287360586441366</v>
+        <v>0.124615899172241</v>
       </c>
       <c r="E16">
-        <v>0.1236128751546772</v>
+        <v>0.06331556827016271</v>
       </c>
       <c r="F16">
-        <v>1.834212306966919</v>
+        <v>0.9022776981296801</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.171407334639039</v>
+        <v>0.4867350404034312</v>
       </c>
       <c r="J16">
-        <v>0.1568011698577365</v>
+        <v>0.05863542697544233</v>
       </c>
       <c r="K16">
-        <v>0.5540251965164771</v>
+        <v>1.456982565175366</v>
       </c>
       <c r="L16">
-        <v>0.3103046961762459</v>
+        <v>0.2975897663580582</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.813852254889156</v>
+        <v>2.215360190560375</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7928036814872428</v>
+        <v>1.568800577414493</v>
       </c>
       <c r="C17">
-        <v>0.08277333919741636</v>
+        <v>0.1201535490571786</v>
       </c>
       <c r="D17">
-        <v>0.1276491263740951</v>
+        <v>0.1201165386235061</v>
       </c>
       <c r="E17">
-        <v>0.123533656703934</v>
+        <v>0.06218117338050178</v>
       </c>
       <c r="F17">
-        <v>1.836733963027633</v>
+        <v>0.8944447958989983</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.174840485164538</v>
+        <v>0.4888634189447423</v>
       </c>
       <c r="J17">
-        <v>0.1571522161507275</v>
+        <v>0.05885740912319548</v>
       </c>
       <c r="K17">
-        <v>0.5361107558922242</v>
+        <v>1.396569410730564</v>
       </c>
       <c r="L17">
-        <v>0.3079186948495476</v>
+        <v>0.2871055309635864</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.824400089573203</v>
+        <v>2.208188258668059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7816609527293394</v>
+        <v>1.529786797969081</v>
       </c>
       <c r="C18">
-        <v>0.08218722107601195</v>
+        <v>0.1184183384453945</v>
       </c>
       <c r="D18">
-        <v>0.1270276994398927</v>
+        <v>0.1175359116418235</v>
       </c>
       <c r="E18">
-        <v>0.1234920181412669</v>
+        <v>0.06153544708161363</v>
       </c>
       <c r="F18">
-        <v>1.838264856423415</v>
+        <v>0.890117241246152</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.176864854010539</v>
+        <v>0.4901953116265965</v>
       </c>
       <c r="J18">
-        <v>0.1573588964713011</v>
+        <v>0.05899323870942652</v>
       </c>
       <c r="K18">
-        <v>0.5258096506863978</v>
+        <v>1.361863797564951</v>
       </c>
       <c r="L18">
-        <v>0.3065568071609022</v>
+        <v>0.2810990010159315</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.83068412370514</v>
+        <v>2.204556761092704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7778906201896234</v>
+        <v>1.516587186247364</v>
       </c>
       <c r="C19">
-        <v>0.08198854112980314</v>
+        <v>0.1178310039070851</v>
       </c>
       <c r="D19">
-        <v>0.1268179407863386</v>
+        <v>0.1166633738357206</v>
       </c>
       <c r="E19">
-        <v>0.1234785951646984</v>
+        <v>0.06131795650825822</v>
       </c>
       <c r="F19">
-        <v>1.838797022194584</v>
+        <v>0.8886820207063835</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.177558809935867</v>
+        <v>0.4906644947548457</v>
       </c>
       <c r="J19">
-        <v>0.1574296942421647</v>
+        <v>0.05904061337877309</v>
       </c>
       <c r="K19">
-        <v>0.5223223764583906</v>
+        <v>1.350119939280745</v>
       </c>
       <c r="L19">
-        <v>0.3060974990770404</v>
+        <v>0.2790692606661764</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.832849100508355</v>
+        <v>2.203410577543366</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7948670862027711</v>
+        <v>1.576025912729875</v>
       </c>
       <c r="C20">
-        <v>0.08288170684960505</v>
+        <v>0.1204747873376562</v>
       </c>
       <c r="D20">
-        <v>0.1277644448017838</v>
+        <v>0.1205947411826571</v>
       </c>
       <c r="E20">
-        <v>0.1235416835443601</v>
+        <v>0.06230122907573588</v>
       </c>
       <c r="F20">
-        <v>1.836457197813019</v>
+        <v>0.8952601062335859</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.174469875817252</v>
+        <v>0.488625637378</v>
       </c>
       <c r="J20">
-        <v>0.1571143533441379</v>
+        <v>0.05883293155209302</v>
       </c>
       <c r="K20">
-        <v>0.5380174930982093</v>
+        <v>1.40299600115253</v>
       </c>
       <c r="L20">
-        <v>0.3081716054210517</v>
+        <v>0.2882191146045017</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.823254776923307</v>
+        <v>2.208900301969635</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8520692842037363</v>
+        <v>1.77648285277462</v>
       </c>
       <c r="C21">
-        <v>0.08586647065638431</v>
+        <v>0.1293731673902556</v>
       </c>
       <c r="D21">
-        <v>0.1309891873989812</v>
+        <v>0.133893182136319</v>
       </c>
       <c r="E21">
-        <v>0.1238004924816529</v>
+        <v>0.06568685102621785</v>
       </c>
       <c r="F21">
-        <v>1.829557179116065</v>
+        <v>0.9195236942308611</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.164685318868294</v>
+        <v>0.4830828384711978</v>
       </c>
       <c r="J21">
-        <v>0.1561117791033944</v>
+        <v>0.05823367100176569</v>
       </c>
       <c r="K21">
-        <v>0.5907829346507469</v>
+        <v>1.58119156045629</v>
       </c>
       <c r="L21">
-        <v>0.3152651855732529</v>
+        <v>0.3192530000935108</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.793613714927716</v>
+        <v>2.233348954705207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.889571891705458</v>
+        <v>1.908139128873728</v>
       </c>
       <c r="C22">
-        <v>0.08780500647947065</v>
+        <v>0.135204435964738</v>
       </c>
       <c r="D22">
-        <v>0.1331296358850693</v>
+        <v>0.1426571793337104</v>
       </c>
       <c r="E22">
-        <v>0.1240044039315933</v>
+        <v>0.06796377452514335</v>
       </c>
       <c r="F22">
-        <v>1.825763368683042</v>
+        <v>0.9370834680868967</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.158732902096993</v>
+        <v>0.4804831012558921</v>
       </c>
       <c r="J22">
-        <v>0.1554988848211778</v>
+        <v>0.05791809632826173</v>
       </c>
       <c r="K22">
-        <v>0.6252885375755</v>
+        <v>1.698130231885813</v>
       </c>
       <c r="L22">
-        <v>0.319993602625118</v>
+        <v>0.3397719368417285</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.77617418431015</v>
+        <v>2.254051618696479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8695455516369748</v>
+        <v>1.837806830724958</v>
       </c>
       <c r="C23">
-        <v>0.08677149701620124</v>
+        <v>0.1320904765362201</v>
       </c>
       <c r="D23">
-        <v>0.1319842517916072</v>
+        <v>0.1379726237276344</v>
       </c>
       <c r="E23">
-        <v>0.123892400943646</v>
+        <v>0.06674245318814442</v>
       </c>
       <c r="F23">
-        <v>1.827722759906351</v>
+        <v>0.927549725200052</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.161869358618382</v>
+        <v>0.4817738368711062</v>
       </c>
       <c r="J23">
-        <v>0.1558221287132646</v>
+        <v>0.05807938796101553</v>
       </c>
       <c r="K23">
-        <v>0.6068706123789127</v>
+        <v>1.635669124114543</v>
       </c>
       <c r="L23">
-        <v>0.3174615529571128</v>
+        <v>0.3287976826846801</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.785305228566642</v>
+        <v>2.242553414286562</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7939341934524293</v>
+        <v>1.572759208746788</v>
       </c>
       <c r="C24">
-        <v>0.0828327188496587</v>
+        <v>0.1203295543840426</v>
       </c>
       <c r="D24">
-        <v>0.1277122985435284</v>
+        <v>0.1203785268424724</v>
       </c>
       <c r="E24">
-        <v>0.123538042443684</v>
+        <v>0.06224693184291041</v>
       </c>
       <c r="F24">
-        <v>1.836582070546918</v>
+        <v>0.8948909585063163</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.174637270668065</v>
+        <v>0.4887328019105297</v>
       </c>
       <c r="J24">
-        <v>0.1571314559820642</v>
+        <v>0.0588439723303118</v>
       </c>
       <c r="K24">
-        <v>0.5371554629335549</v>
+        <v>1.400090457491416</v>
       </c>
       <c r="L24">
-        <v>0.3080572338406995</v>
+        <v>0.2877155983138096</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.823771887642977</v>
+        <v>2.208576859086889</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7129076574818214</v>
+        <v>1.289089847505124</v>
       </c>
       <c r="C25">
-        <v>0.07853272712524273</v>
+        <v>0.1076854442894515</v>
       </c>
       <c r="D25">
-        <v>0.1232478561650936</v>
+        <v>0.1016749839522078</v>
       </c>
       <c r="E25">
-        <v>0.1233060116639706</v>
+        <v>0.0576536244134811</v>
       </c>
       <c r="F25">
-        <v>1.849216724904593</v>
+        <v>0.8663970148880367</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.190310306174045</v>
+        <v>0.5003245740923283</v>
       </c>
       <c r="J25">
-        <v>0.1587261273451261</v>
+        <v>0.0599785575885079</v>
       </c>
       <c r="K25">
-        <v>0.4620662161180462</v>
+        <v>1.147552581781383</v>
       </c>
       <c r="L25">
-        <v>0.2983142331406867</v>
+        <v>0.2442960678168191</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.873569239585265</v>
+        <v>2.190632454778637</v>
       </c>
     </row>
   </sheetData>
